--- a/test/helper/pig_data/pigs.xlsx
+++ b/test/helper/pig_data/pigs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27916"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="219" documentId="11_A036919BCEDCCEE3E979BAFA8980FCDE016F55DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1FD45F5-2646-491D-A43D-9C278F482803}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5641E06D-E43E-48DC-BAC0-BCF158098FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,6 @@
     <sheet name="祖先資料" sheetId="3" r:id="rId2"/>
     <sheet name="工作表1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -89,6 +86,9 @@
     <t>欄1</t>
   </si>
   <si>
+    <t>出生胎次</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
@@ -747,9 +747,6 @@
   </si>
   <si>
     <t>1374-3</t>
-  </si>
-  <si>
-    <t>=concat(index('祖先資料'!B2:B50, '基本資料'!K2), index('祖先資料'!C2:C50)</t>
   </si>
   <si>
     <t>1605-4</t>
@@ -1179,19 +1176,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="工作表1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1511,22 +1495,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:R304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111:XFD111"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R112" sqref="R112:R304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1578,31 +1563,34 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5">
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>45722</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>656405</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -1613,31 +1601,35 @@
       <c r="M2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="8">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1">
         <v>46346</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>909753</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>24</v>
@@ -1648,31 +1640,35 @@
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="8">
+        <f t="shared" ref="R3:R66" ca="1" si="0">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>45805</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1683,31 +1679,35 @@
       <c r="M4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>45829</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>22</v>
@@ -1718,31 +1718,35 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>46300</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>349315</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1753,31 +1757,35 @@
       <c r="M6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>46190</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>458250</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>24</v>
@@ -1788,31 +1796,35 @@
       <c r="M7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>46205</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>932245</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>15</v>
@@ -1823,31 +1835,35 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1">
         <v>46015</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>42</v>
@@ -1858,31 +1874,35 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1">
         <v>46095</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>931006</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>16</v>
@@ -1893,31 +1913,35 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1">
         <v>45907</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>540684</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1928,31 +1952,35 @@
       <c r="M11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1">
         <v>46340</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1963,31 +1991,35 @@
       <c r="M12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1">
         <v>45840</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13">
         <v>278003</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13">
         <v>42</v>
@@ -1998,31 +2030,35 @@
       <c r="M13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1">
         <v>45842</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2033,31 +2069,35 @@
       <c r="M14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1">
         <v>46050</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15">
         <v>507842</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15">
         <v>20</v>
@@ -2068,31 +2108,35 @@
       <c r="M15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1">
         <v>46305</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H16">
         <v>860504</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16">
         <v>48</v>
@@ -2103,31 +2147,35 @@
       <c r="M16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="R16" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1">
         <v>45668</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>800377</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17">
         <v>30</v>
@@ -2138,31 +2186,35 @@
       <c r="M17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="R17" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1">
         <v>46205</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18">
         <v>48</v>
@@ -2173,31 +2225,35 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="R18" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1">
         <v>45717</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19">
         <v>38</v>
@@ -2208,31 +2264,35 @@
       <c r="M19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="R19" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1">
         <v>45916</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20">
         <v>507592</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20">
         <v>29</v>
@@ -2243,31 +2303,35 @@
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="R20" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1">
         <v>46097</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2278,31 +2342,35 @@
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="R21" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1">
         <v>45817</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22">
         <v>815970</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22">
         <v>14</v>
@@ -2313,31 +2381,35 @@
       <c r="M22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="R22" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1">
         <v>46313</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>503297</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23">
         <v>39</v>
@@ -2348,31 +2420,35 @@
       <c r="M23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="R23" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1">
         <v>45873</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24">
         <v>175423</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K24">
         <v>13</v>
@@ -2383,31 +2459,35 @@
       <c r="M24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="R24" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1">
         <v>46108</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25">
         <v>471535</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25">
         <v>14</v>
@@ -2418,31 +2498,35 @@
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="R25" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" s="1">
         <v>46214</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K26">
         <v>35</v>
@@ -2453,31 +2537,35 @@
       <c r="M26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="R26" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" s="1">
         <v>46308</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>286444</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K27">
         <v>29</v>
@@ -2488,31 +2576,35 @@
       <c r="M27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="R27" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1">
         <v>45701</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K28">
         <v>27</v>
@@ -2523,31 +2615,35 @@
       <c r="M28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="R28" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1">
         <v>45992</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29">
         <v>144467</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K29">
         <v>37</v>
@@ -2558,31 +2654,35 @@
       <c r="M29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="R29" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="1">
         <v>45819</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2593,31 +2693,35 @@
       <c r="M30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="R30" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="1">
         <v>45864</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>549184</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K31">
         <v>49</v>
@@ -2628,31 +2732,35 @@
       <c r="M31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="R31" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1">
         <v>46287</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H32">
         <v>611746</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K32">
         <v>44</v>
@@ -2663,31 +2771,35 @@
       <c r="M32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="R32" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E33" s="1">
         <v>45918</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K33">
         <v>28</v>
@@ -2698,31 +2810,35 @@
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="R33" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E34" s="1">
         <v>45976</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H34">
         <v>298622</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34">
         <v>9</v>
@@ -2733,31 +2849,35 @@
       <c r="M34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="R34" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1">
         <v>45951</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H35">
         <v>793074</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K35">
         <v>42</v>
@@ -2768,31 +2888,35 @@
       <c r="M35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="R35" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" s="1">
         <v>45788</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K36">
         <v>47</v>
@@ -2803,31 +2927,35 @@
       <c r="M36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="R36" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1">
         <v>46034</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H37">
         <v>419718</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K37">
         <v>25</v>
@@ -2838,31 +2966,35 @@
       <c r="M37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="R37" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1">
         <v>46018</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38">
         <v>207578</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K38">
         <v>40</v>
@@ -2873,31 +3005,35 @@
       <c r="M38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="R38" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1">
         <v>46036</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H39">
         <v>333371</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K39">
         <v>42</v>
@@ -2908,31 +3044,35 @@
       <c r="M39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="R39" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E40" s="1">
         <v>45788</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H40">
         <v>892257</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K40">
         <v>49</v>
@@ -2943,31 +3083,35 @@
       <c r="M40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="R40" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1">
         <v>45692</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K41">
         <v>39</v>
@@ -2978,31 +3122,35 @@
       <c r="M41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="R41" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E42" s="1">
         <v>45878</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H42">
         <v>456053</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K42">
         <v>47</v>
@@ -3013,31 +3161,35 @@
       <c r="M42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="R42" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E43" s="1">
         <v>46346</v>
       </c>
       <c r="F43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H43">
         <v>968920</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K43">
         <v>43</v>
@@ -3048,31 +3200,35 @@
       <c r="M43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="R43" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E44" s="1">
         <v>45891</v>
       </c>
       <c r="F44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H44">
         <v>184241</v>
       </c>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K44">
         <v>19</v>
@@ -3083,31 +3239,35 @@
       <c r="M44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="R44" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E45" s="1">
         <v>45739</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H45">
         <v>415287</v>
       </c>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K45">
         <v>18</v>
@@ -3118,31 +3278,35 @@
       <c r="M45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="R45" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E46" s="1">
         <v>46060</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K46">
         <v>47</v>
@@ -3153,31 +3317,35 @@
       <c r="M46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="R46" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E47" s="1">
         <v>45942</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H47">
         <v>942324</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -3188,31 +3356,35 @@
       <c r="M47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="R47" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E48" s="1">
         <v>46360</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -3223,31 +3395,35 @@
       <c r="M48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="R48" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E49" s="1">
         <v>45833</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K49">
         <v>29</v>
@@ -3258,31 +3434,35 @@
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="R49" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E50" s="1">
         <v>46378</v>
       </c>
       <c r="F50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H50">
         <v>103323</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K50">
         <v>40</v>
@@ -3293,31 +3473,35 @@
       <c r="M50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="R50" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E51" s="1">
         <v>45740</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K51">
         <v>28</v>
@@ -3328,31 +3512,35 @@
       <c r="M51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="R51" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E52" s="1">
         <v>45783</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K52">
         <v>22</v>
@@ -3363,31 +3551,35 @@
       <c r="M52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="R52" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E53" s="1">
         <v>46369</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -3398,31 +3590,35 @@
       <c r="M53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="R53" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E54" s="1">
         <v>45825</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K54">
         <v>44</v>
@@ -3433,31 +3629,35 @@
       <c r="M54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="R54" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E55" s="1">
         <v>46189</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H55">
         <v>466123</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K55">
         <v>16</v>
@@ -3468,31 +3668,35 @@
       <c r="M55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="R55" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E56" s="1">
         <v>46201</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H56">
         <v>398836</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K56">
         <v>44</v>
@@ -3503,31 +3707,35 @@
       <c r="M56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="R56" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E57" s="1">
         <v>46096</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K57">
         <v>29</v>
@@ -3538,31 +3746,35 @@
       <c r="M57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="R57" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E58" s="1">
         <v>45715</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K58">
         <v>12</v>
@@ -3573,31 +3785,35 @@
       <c r="M58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="R58" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E59" s="1">
         <v>45764</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K59">
         <v>13</v>
@@ -3608,31 +3824,35 @@
       <c r="M59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="R59" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E60" s="1">
         <v>45842</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -3643,31 +3863,35 @@
       <c r="M60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="R60" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E61" s="1">
         <v>45931</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K61">
         <v>20</v>
@@ -3678,31 +3902,35 @@
       <c r="M61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="R61" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E62" s="1">
         <v>46238</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>567958</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K62">
         <v>13</v>
@@ -3713,31 +3941,35 @@
       <c r="M62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="R62" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E63" s="1">
         <v>46382</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K63">
         <v>13</v>
@@ -3748,31 +3980,35 @@
       <c r="M63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="R63" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E64" s="1">
         <v>46315</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>826397</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K64">
         <v>12</v>
@@ -3783,31 +4019,35 @@
       <c r="M64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="R64" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E65" s="1">
         <v>46064</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H65">
         <v>896905</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K65">
         <v>24</v>
@@ -3818,31 +4058,35 @@
       <c r="M65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="R65" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E66" s="1">
         <v>45832</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H66">
         <v>798812</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K66">
         <v>24</v>
@@ -3853,31 +4097,35 @@
       <c r="M66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="R66" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E67" s="1">
         <v>45957</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>833992</v>
       </c>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K67">
         <v>22</v>
@@ -3888,31 +4136,35 @@
       <c r="M67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="R67" s="8">
+        <f t="shared" ref="R67:R111" ca="1" si="1">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E68" s="1">
         <v>46060</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H68">
         <v>149964</v>
       </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K68">
         <v>30</v>
@@ -3923,31 +4175,35 @@
       <c r="M68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="R68" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E69" s="1">
         <v>45760</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H69">
         <v>187411</v>
       </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K69">
         <v>48</v>
@@ -3958,31 +4214,35 @@
       <c r="M69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="R69" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E70" s="1">
         <v>45997</v>
       </c>
       <c r="F70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K70">
         <v>36</v>
@@ -3993,31 +4253,35 @@
       <c r="M70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="R70" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E71" s="1">
         <v>46092</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K71">
         <v>24</v>
@@ -4028,31 +4292,35 @@
       <c r="M71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="R71" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E72" s="1">
         <v>46061</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H72">
         <v>953707</v>
       </c>
       <c r="I72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K72">
         <v>39</v>
@@ -4063,31 +4331,35 @@
       <c r="M72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="R72" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E73" s="1">
         <v>46214</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H73">
         <v>772810</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K73">
         <v>22</v>
@@ -4098,31 +4370,35 @@
       <c r="M73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="R73" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E74" s="1">
         <v>45845</v>
       </c>
       <c r="F74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H74">
         <v>667550</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K74">
         <v>34</v>
@@ -4133,31 +4409,35 @@
       <c r="M74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="R74" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E75" s="1">
         <v>45764</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H75">
         <v>365661</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K75">
         <v>28</v>
@@ -4168,31 +4448,35 @@
       <c r="M75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="R75" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E76" s="1">
         <v>46334</v>
       </c>
       <c r="F76" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K76">
         <v>33</v>
@@ -4203,31 +4487,35 @@
       <c r="M76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="R76" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E77" s="1">
         <v>45750</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K77">
         <v>32</v>
@@ -4238,31 +4526,35 @@
       <c r="M77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="R77" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E78" s="1">
         <v>46058</v>
       </c>
       <c r="F78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H78">
         <v>860427</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K78">
         <v>40</v>
@@ -4273,31 +4565,35 @@
       <c r="M78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="R78" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E79" s="1">
         <v>46288</v>
       </c>
       <c r="F79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H79">
         <v>764116</v>
       </c>
       <c r="I79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K79">
         <v>39</v>
@@ -4308,31 +4604,35 @@
       <c r="M79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="R79" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E80" s="1">
         <v>46097</v>
       </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K80">
         <v>38</v>
@@ -4343,31 +4643,35 @@
       <c r="M80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="R80" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E81" s="1">
         <v>45694</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K81">
         <v>37</v>
@@ -4378,31 +4682,35 @@
       <c r="M81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="R81" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E82" s="1">
         <v>46255</v>
       </c>
       <c r="F82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K82">
         <v>35</v>
@@ -4413,31 +4721,35 @@
       <c r="M82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="R82" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E83" s="1">
         <v>46139</v>
       </c>
       <c r="F83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K83">
         <v>33</v>
@@ -4448,31 +4760,35 @@
       <c r="M83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="R83" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E84" s="1">
         <v>45788</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>927521</v>
       </c>
       <c r="I84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K84">
         <v>49</v>
@@ -4483,31 +4799,35 @@
       <c r="M84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="R84" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E85" s="1">
         <v>46154</v>
       </c>
       <c r="F85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H85">
         <v>741774</v>
       </c>
       <c r="I85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K85">
         <v>46</v>
@@ -4518,31 +4838,35 @@
       <c r="M85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="R85" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E86" s="1">
         <v>46070</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H86">
         <v>532667</v>
       </c>
       <c r="I86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K86">
         <v>22</v>
@@ -4553,31 +4877,35 @@
       <c r="M86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="R86" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E87" s="1">
         <v>46008</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H87">
         <v>690395</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K87">
         <v>32</v>
@@ -4588,31 +4916,35 @@
       <c r="M87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="R87" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E88" s="1">
         <v>46338</v>
       </c>
       <c r="F88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G88" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K88">
         <v>21</v>
@@ -4623,31 +4955,35 @@
       <c r="M88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="R88" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E89" s="1">
         <v>46004</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H89">
         <v>625723</v>
       </c>
       <c r="I89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K89">
         <v>29</v>
@@ -4658,31 +4994,35 @@
       <c r="M89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="R89" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E90" s="1">
         <v>45750</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K90">
         <v>15</v>
@@ -4693,31 +5033,35 @@
       <c r="M90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="R90" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E91" s="1">
         <v>45881</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G91" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K91">
         <v>38</v>
@@ -4728,31 +5072,35 @@
       <c r="M91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="R91" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E92" s="1">
         <v>46027</v>
       </c>
       <c r="F92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G92" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H92">
         <v>743933</v>
       </c>
       <c r="I92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K92">
         <v>21</v>
@@ -4763,31 +5111,35 @@
       <c r="M92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="R92" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E93" s="1">
         <v>46039</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -4798,31 +5150,35 @@
       <c r="M93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="R93" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E94" s="1">
         <v>46241</v>
       </c>
       <c r="F94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H94">
         <v>274050</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K94">
         <v>41</v>
@@ -4833,34 +5189,38 @@
       <c r="M94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="R94" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E95" s="1">
         <v>46287</v>
       </c>
       <c r="F95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G95" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K95">
         <v>8</v>
@@ -4871,34 +5231,38 @@
       <c r="M95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" s="9" customFormat="1">
+      <c r="R95" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" s="9" customFormat="1">
       <c r="A96" s="9">
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E96" s="10">
         <v>46028</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H96" s="9">
         <v>274050</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K96" s="9">
         <v>27</v>
@@ -4909,34 +5273,38 @@
       <c r="M96" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" s="9" customFormat="1">
+      <c r="R96" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="9" customFormat="1">
       <c r="A97" s="9">
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E97" s="10">
         <v>46257</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H97" s="9">
         <v>634515</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K97" s="9">
         <v>5</v>
@@ -4947,34 +5315,38 @@
       <c r="M97" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" s="9" customFormat="1">
+      <c r="R97" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="9" customFormat="1">
       <c r="A98" s="9">
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E98" s="10">
         <v>46005</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H98" s="9">
         <v>106032</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K98" s="9">
         <v>43</v>
@@ -4985,34 +5357,38 @@
       <c r="M98" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" s="9" customFormat="1">
+      <c r="R98" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="9" customFormat="1">
       <c r="A99" s="9">
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E99" s="10">
         <v>36368</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H99" s="9">
         <v>234354</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K99" s="9">
         <v>37</v>
@@ -5023,34 +5399,38 @@
       <c r="M99" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" s="9" customFormat="1">
+      <c r="R99" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="9" customFormat="1">
       <c r="A100" s="9">
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E100" s="10">
         <v>46102</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K100" s="9">
         <v>29</v>
@@ -5061,34 +5441,38 @@
       <c r="M100" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" s="9" customFormat="1">
+      <c r="R100" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="9" customFormat="1">
       <c r="A101" s="9">
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E101" s="10">
         <v>46268</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H101" s="9">
         <v>880247</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K101" s="9">
         <v>21</v>
@@ -5099,13 +5483,17 @@
       <c r="M101" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="R101" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C102">
         <v>123456</v>
@@ -5114,294 +5502,913 @@
         <v>46268</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" s="9" customFormat="1">
+      <c r="R102" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" s="9" customFormat="1">
       <c r="A103" s="9">
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E103" s="10">
         <v>46269</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M103" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" s="9" customFormat="1">
+      <c r="R103" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" s="9" customFormat="1">
       <c r="A104" s="9">
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E104" s="10">
         <v>46269</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M104" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" s="9" customFormat="1">
+      <c r="R104" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" s="9" customFormat="1">
       <c r="A105" s="9">
         <v>103</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E105" s="10">
         <v>46269</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M105" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" s="9" customFormat="1">
+      <c r="R105" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" s="9" customFormat="1">
       <c r="A106" s="9">
         <v>102</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E106" s="10">
         <v>46269</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M106" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" s="9" customFormat="1">
+      <c r="R106" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" s="9" customFormat="1">
       <c r="A107" s="9">
         <v>102</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E107" s="10">
         <v>46269</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M107" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" s="9" customFormat="1">
+      <c r="R107" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" s="9" customFormat="1">
       <c r="A108" s="9">
         <v>103</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E108" s="10">
         <v>46269</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M108" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="R108" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>103</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E109" s="1">
         <v>46269</v>
       </c>
       <c r="F109" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G109" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" s="9" customFormat="1">
+      <c r="R109" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" s="9" customFormat="1">
       <c r="A110" s="9">
         <v>103</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E110" s="10">
         <v>46269</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M110" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" s="9" customFormat="1">
+      <c r="R110" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" s="9" customFormat="1">
       <c r="A111" s="9">
         <v>103</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M111" s="9">
         <v>2</v>
       </c>
+      <c r="R111" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="R112"/>
+    </row>
+    <row r="113" spans="18:18">
+      <c r="R113"/>
+    </row>
+    <row r="114" spans="18:18">
+      <c r="R114"/>
+    </row>
+    <row r="115" spans="18:18">
+      <c r="R115"/>
+    </row>
+    <row r="116" spans="18:18">
+      <c r="R116"/>
+    </row>
+    <row r="117" spans="18:18">
+      <c r="R117"/>
+    </row>
+    <row r="118" spans="18:18">
+      <c r="R118"/>
+    </row>
+    <row r="119" spans="18:18">
+      <c r="R119"/>
+    </row>
+    <row r="120" spans="18:18">
+      <c r="R120"/>
+    </row>
+    <row r="121" spans="18:18">
+      <c r="R121"/>
+    </row>
+    <row r="122" spans="18:18">
+      <c r="R122"/>
+    </row>
+    <row r="123" spans="18:18">
+      <c r="R123"/>
+    </row>
+    <row r="124" spans="18:18">
+      <c r="R124"/>
+    </row>
+    <row r="125" spans="18:18">
+      <c r="R125"/>
+    </row>
+    <row r="126" spans="18:18">
+      <c r="R126"/>
+    </row>
+    <row r="127" spans="18:18">
+      <c r="R127"/>
+    </row>
+    <row r="128" spans="18:18">
+      <c r="R128"/>
+    </row>
+    <row r="129" spans="18:18">
+      <c r="R129"/>
+    </row>
+    <row r="130" spans="18:18">
+      <c r="R130"/>
+    </row>
+    <row r="131" spans="18:18">
+      <c r="R131"/>
+    </row>
+    <row r="132" spans="18:18">
+      <c r="R132"/>
+    </row>
+    <row r="133" spans="18:18">
+      <c r="R133"/>
+    </row>
+    <row r="134" spans="18:18">
+      <c r="R134"/>
+    </row>
+    <row r="135" spans="18:18">
+      <c r="R135"/>
+    </row>
+    <row r="136" spans="18:18">
+      <c r="R136"/>
+    </row>
+    <row r="137" spans="18:18">
+      <c r="R137"/>
+    </row>
+    <row r="138" spans="18:18">
+      <c r="R138"/>
+    </row>
+    <row r="139" spans="18:18">
+      <c r="R139"/>
+    </row>
+    <row r="140" spans="18:18">
+      <c r="R140"/>
+    </row>
+    <row r="141" spans="18:18">
+      <c r="R141"/>
+    </row>
+    <row r="142" spans="18:18">
+      <c r="R142"/>
+    </row>
+    <row r="143" spans="18:18">
+      <c r="R143"/>
+    </row>
+    <row r="144" spans="18:18">
+      <c r="R144"/>
+    </row>
+    <row r="145" spans="18:18">
+      <c r="R145"/>
+    </row>
+    <row r="146" spans="18:18">
+      <c r="R146"/>
+    </row>
+    <row r="147" spans="18:18">
+      <c r="R147"/>
+    </row>
+    <row r="148" spans="18:18">
+      <c r="R148"/>
+    </row>
+    <row r="149" spans="18:18">
+      <c r="R149"/>
+    </row>
+    <row r="150" spans="18:18">
+      <c r="R150"/>
+    </row>
+    <row r="151" spans="18:18">
+      <c r="R151"/>
+    </row>
+    <row r="152" spans="18:18">
+      <c r="R152"/>
+    </row>
+    <row r="153" spans="18:18">
+      <c r="R153"/>
+    </row>
+    <row r="154" spans="18:18">
+      <c r="R154"/>
+    </row>
+    <row r="155" spans="18:18">
+      <c r="R155"/>
+    </row>
+    <row r="156" spans="18:18">
+      <c r="R156"/>
+    </row>
+    <row r="157" spans="18:18">
+      <c r="R157"/>
+    </row>
+    <row r="158" spans="18:18">
+      <c r="R158"/>
+    </row>
+    <row r="159" spans="18:18">
+      <c r="R159"/>
+    </row>
+    <row r="160" spans="18:18">
+      <c r="R160"/>
+    </row>
+    <row r="161" spans="18:18">
+      <c r="R161"/>
+    </row>
+    <row r="162" spans="18:18">
+      <c r="R162"/>
+    </row>
+    <row r="163" spans="18:18">
+      <c r="R163"/>
+    </row>
+    <row r="164" spans="18:18">
+      <c r="R164"/>
+    </row>
+    <row r="165" spans="18:18">
+      <c r="R165"/>
+    </row>
+    <row r="166" spans="18:18">
+      <c r="R166"/>
+    </row>
+    <row r="167" spans="18:18">
+      <c r="R167"/>
+    </row>
+    <row r="168" spans="18:18">
+      <c r="R168"/>
+    </row>
+    <row r="169" spans="18:18">
+      <c r="R169"/>
+    </row>
+    <row r="170" spans="18:18">
+      <c r="R170"/>
+    </row>
+    <row r="171" spans="18:18">
+      <c r="R171"/>
+    </row>
+    <row r="172" spans="18:18">
+      <c r="R172"/>
+    </row>
+    <row r="173" spans="18:18">
+      <c r="R173"/>
+    </row>
+    <row r="174" spans="18:18">
+      <c r="R174"/>
+    </row>
+    <row r="175" spans="18:18">
+      <c r="R175"/>
+    </row>
+    <row r="176" spans="18:18">
+      <c r="R176"/>
+    </row>
+    <row r="177" spans="18:18">
+      <c r="R177"/>
+    </row>
+    <row r="178" spans="18:18">
+      <c r="R178"/>
+    </row>
+    <row r="179" spans="18:18">
+      <c r="R179"/>
+    </row>
+    <row r="180" spans="18:18">
+      <c r="R180"/>
+    </row>
+    <row r="181" spans="18:18">
+      <c r="R181"/>
+    </row>
+    <row r="182" spans="18:18">
+      <c r="R182"/>
+    </row>
+    <row r="183" spans="18:18">
+      <c r="R183"/>
+    </row>
+    <row r="184" spans="18:18">
+      <c r="R184"/>
+    </row>
+    <row r="185" spans="18:18">
+      <c r="R185"/>
+    </row>
+    <row r="186" spans="18:18">
+      <c r="R186"/>
+    </row>
+    <row r="187" spans="18:18">
+      <c r="R187"/>
+    </row>
+    <row r="188" spans="18:18">
+      <c r="R188"/>
+    </row>
+    <row r="189" spans="18:18">
+      <c r="R189"/>
+    </row>
+    <row r="190" spans="18:18">
+      <c r="R190"/>
+    </row>
+    <row r="191" spans="18:18">
+      <c r="R191"/>
+    </row>
+    <row r="192" spans="18:18">
+      <c r="R192"/>
+    </row>
+    <row r="193" spans="18:18">
+      <c r="R193"/>
+    </row>
+    <row r="194" spans="18:18">
+      <c r="R194"/>
+    </row>
+    <row r="195" spans="18:18">
+      <c r="R195"/>
+    </row>
+    <row r="196" spans="18:18">
+      <c r="R196"/>
+    </row>
+    <row r="197" spans="18:18">
+      <c r="R197"/>
+    </row>
+    <row r="198" spans="18:18">
+      <c r="R198"/>
+    </row>
+    <row r="199" spans="18:18">
+      <c r="R199"/>
+    </row>
+    <row r="200" spans="18:18">
+      <c r="R200"/>
+    </row>
+    <row r="201" spans="18:18">
+      <c r="R201"/>
+    </row>
+    <row r="202" spans="18:18">
+      <c r="R202"/>
+    </row>
+    <row r="203" spans="18:18">
+      <c r="R203"/>
+    </row>
+    <row r="204" spans="18:18">
+      <c r="R204"/>
+    </row>
+    <row r="205" spans="18:18">
+      <c r="R205"/>
+    </row>
+    <row r="206" spans="18:18">
+      <c r="R206"/>
+    </row>
+    <row r="207" spans="18:18">
+      <c r="R207"/>
+    </row>
+    <row r="208" spans="18:18">
+      <c r="R208"/>
+    </row>
+    <row r="209" spans="18:18">
+      <c r="R209"/>
+    </row>
+    <row r="210" spans="18:18">
+      <c r="R210"/>
+    </row>
+    <row r="211" spans="18:18">
+      <c r="R211"/>
+    </row>
+    <row r="212" spans="18:18">
+      <c r="R212"/>
+    </row>
+    <row r="213" spans="18:18">
+      <c r="R213"/>
+    </row>
+    <row r="214" spans="18:18">
+      <c r="R214"/>
+    </row>
+    <row r="215" spans="18:18">
+      <c r="R215"/>
+    </row>
+    <row r="216" spans="18:18">
+      <c r="R216"/>
+    </row>
+    <row r="217" spans="18:18">
+      <c r="R217"/>
+    </row>
+    <row r="218" spans="18:18">
+      <c r="R218"/>
+    </row>
+    <row r="219" spans="18:18">
+      <c r="R219"/>
+    </row>
+    <row r="220" spans="18:18">
+      <c r="R220"/>
+    </row>
+    <row r="221" spans="18:18">
+      <c r="R221"/>
+    </row>
+    <row r="222" spans="18:18">
+      <c r="R222"/>
+    </row>
+    <row r="223" spans="18:18">
+      <c r="R223"/>
+    </row>
+    <row r="224" spans="18:18">
+      <c r="R224"/>
+    </row>
+    <row r="225" spans="18:18">
+      <c r="R225"/>
+    </row>
+    <row r="226" spans="18:18">
+      <c r="R226"/>
+    </row>
+    <row r="227" spans="18:18">
+      <c r="R227"/>
+    </row>
+    <row r="228" spans="18:18">
+      <c r="R228"/>
+    </row>
+    <row r="229" spans="18:18">
+      <c r="R229"/>
+    </row>
+    <row r="230" spans="18:18">
+      <c r="R230"/>
+    </row>
+    <row r="231" spans="18:18">
+      <c r="R231"/>
+    </row>
+    <row r="232" spans="18:18">
+      <c r="R232"/>
+    </row>
+    <row r="233" spans="18:18">
+      <c r="R233"/>
+    </row>
+    <row r="234" spans="18:18">
+      <c r="R234"/>
+    </row>
+    <row r="235" spans="18:18">
+      <c r="R235"/>
+    </row>
+    <row r="236" spans="18:18">
+      <c r="R236"/>
+    </row>
+    <row r="237" spans="18:18">
+      <c r="R237"/>
+    </row>
+    <row r="238" spans="18:18">
+      <c r="R238"/>
+    </row>
+    <row r="239" spans="18:18">
+      <c r="R239"/>
+    </row>
+    <row r="240" spans="18:18">
+      <c r="R240"/>
+    </row>
+    <row r="241" spans="18:18">
+      <c r="R241"/>
+    </row>
+    <row r="242" spans="18:18">
+      <c r="R242"/>
+    </row>
+    <row r="243" spans="18:18">
+      <c r="R243"/>
+    </row>
+    <row r="244" spans="18:18">
+      <c r="R244"/>
+    </row>
+    <row r="245" spans="18:18">
+      <c r="R245"/>
+    </row>
+    <row r="246" spans="18:18">
+      <c r="R246"/>
+    </row>
+    <row r="247" spans="18:18">
+      <c r="R247"/>
+    </row>
+    <row r="248" spans="18:18">
+      <c r="R248"/>
+    </row>
+    <row r="249" spans="18:18">
+      <c r="R249"/>
+    </row>
+    <row r="250" spans="18:18">
+      <c r="R250"/>
+    </row>
+    <row r="251" spans="18:18">
+      <c r="R251"/>
+    </row>
+    <row r="252" spans="18:18">
+      <c r="R252"/>
+    </row>
+    <row r="253" spans="18:18">
+      <c r="R253"/>
+    </row>
+    <row r="254" spans="18:18">
+      <c r="R254"/>
+    </row>
+    <row r="255" spans="18:18">
+      <c r="R255"/>
+    </row>
+    <row r="256" spans="18:18">
+      <c r="R256"/>
+    </row>
+    <row r="257" spans="18:18">
+      <c r="R257"/>
+    </row>
+    <row r="258" spans="18:18">
+      <c r="R258"/>
+    </row>
+    <row r="259" spans="18:18">
+      <c r="R259"/>
+    </row>
+    <row r="260" spans="18:18">
+      <c r="R260"/>
+    </row>
+    <row r="261" spans="18:18">
+      <c r="R261"/>
+    </row>
+    <row r="262" spans="18:18">
+      <c r="R262"/>
+    </row>
+    <row r="263" spans="18:18">
+      <c r="R263"/>
+    </row>
+    <row r="264" spans="18:18">
+      <c r="R264"/>
+    </row>
+    <row r="265" spans="18:18">
+      <c r="R265"/>
+    </row>
+    <row r="266" spans="18:18">
+      <c r="R266"/>
+    </row>
+    <row r="267" spans="18:18">
+      <c r="R267"/>
+    </row>
+    <row r="268" spans="18:18">
+      <c r="R268"/>
+    </row>
+    <row r="269" spans="18:18">
+      <c r="R269"/>
+    </row>
+    <row r="270" spans="18:18">
+      <c r="R270"/>
+    </row>
+    <row r="271" spans="18:18">
+      <c r="R271"/>
+    </row>
+    <row r="272" spans="18:18">
+      <c r="R272"/>
+    </row>
+    <row r="273" spans="18:18">
+      <c r="R273"/>
+    </row>
+    <row r="274" spans="18:18">
+      <c r="R274"/>
+    </row>
+    <row r="275" spans="18:18">
+      <c r="R275"/>
+    </row>
+    <row r="276" spans="18:18">
+      <c r="R276"/>
+    </row>
+    <row r="277" spans="18:18">
+      <c r="R277"/>
+    </row>
+    <row r="278" spans="18:18">
+      <c r="R278"/>
+    </row>
+    <row r="279" spans="18:18">
+      <c r="R279"/>
+    </row>
+    <row r="280" spans="18:18">
+      <c r="R280"/>
+    </row>
+    <row r="281" spans="18:18">
+      <c r="R281"/>
+    </row>
+    <row r="282" spans="18:18">
+      <c r="R282"/>
+    </row>
+    <row r="283" spans="18:18">
+      <c r="R283"/>
+    </row>
+    <row r="284" spans="18:18">
+      <c r="R284"/>
+    </row>
+    <row r="285" spans="18:18">
+      <c r="R285"/>
+    </row>
+    <row r="286" spans="18:18">
+      <c r="R286"/>
+    </row>
+    <row r="287" spans="18:18">
+      <c r="R287"/>
+    </row>
+    <row r="288" spans="18:18">
+      <c r="R288"/>
+    </row>
+    <row r="289" spans="18:18">
+      <c r="R289"/>
+    </row>
+    <row r="290" spans="18:18">
+      <c r="R290"/>
+    </row>
+    <row r="291" spans="18:18">
+      <c r="R291"/>
+    </row>
+    <row r="292" spans="18:18">
+      <c r="R292"/>
+    </row>
+    <row r="293" spans="18:18">
+      <c r="R293"/>
+    </row>
+    <row r="294" spans="18:18">
+      <c r="R294"/>
+    </row>
+    <row r="295" spans="18:18">
+      <c r="R295"/>
+    </row>
+    <row r="296" spans="18:18">
+      <c r="R296"/>
+    </row>
+    <row r="297" spans="18:18">
+      <c r="R297"/>
+    </row>
+    <row r="298" spans="18:18">
+      <c r="R298"/>
+    </row>
+    <row r="299" spans="18:18">
+      <c r="R299"/>
+    </row>
+    <row r="300" spans="18:18">
+      <c r="R300"/>
+    </row>
+    <row r="301" spans="18:18">
+      <c r="R301"/>
+    </row>
+    <row r="302" spans="18:18">
+      <c r="R302"/>
+    </row>
+    <row r="303" spans="18:18">
+      <c r="R303"/>
+    </row>
+    <row r="304" spans="18:18">
+      <c r="R304"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5412,8 +6419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD35307-8739-43A2-B57F-9A5C1463D94B}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51:M101"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5481,22 +6488,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E2" s="1">
         <v>44832</v>
       </c>
-      <c r="F2" t="s">
-        <v>237</v>
-      </c>
       <c r="H2">
         <v>220815</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -5507,7 +6511,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>238</v>
@@ -5519,7 +6523,7 @@
         <v>114463</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -5530,7 +6534,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>239</v>
@@ -5542,7 +6546,7 @@
         <v>571977</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -5553,7 +6557,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>240</v>
@@ -5562,10 +6566,10 @@
         <v>44774</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -5576,7 +6580,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>241</v>
@@ -5585,10 +6589,10 @@
         <v>45192</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -5599,7 +6603,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>241</v>
@@ -5611,7 +6615,7 @@
         <v>622282</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -5622,7 +6626,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>242</v>
@@ -5631,10 +6635,10 @@
         <v>42972</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -5645,7 +6649,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>243</v>
@@ -5657,7 +6661,7 @@
         <v>546867</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -5668,7 +6672,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>244</v>
@@ -5677,10 +6681,10 @@
         <v>43264</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -5691,7 +6695,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>245</v>
@@ -5700,10 +6704,10 @@
         <v>45151</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -5714,7 +6718,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>246</v>
@@ -5726,7 +6730,7 @@
         <v>695593</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -5737,7 +6741,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>247</v>
@@ -5749,7 +6753,7 @@
         <v>630400</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -5760,7 +6764,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>248</v>
@@ -5772,7 +6776,7 @@
         <v>590433</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -5783,7 +6787,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>249</v>
@@ -5795,7 +6799,7 @@
         <v>246174</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -5806,7 +6810,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>250</v>
@@ -5815,10 +6819,10 @@
         <v>42646</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -5829,7 +6833,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>251</v>
@@ -5838,10 +6842,10 @@
         <v>42378</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -5852,7 +6856,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>252</v>
@@ -5864,7 +6868,7 @@
         <v>348752</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -5875,7 +6879,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>253</v>
@@ -5887,7 +6891,7 @@
         <v>984299</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -5898,7 +6902,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>254</v>
@@ -5907,10 +6911,10 @@
         <v>44746</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -5921,7 +6925,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>255</v>
@@ -5933,7 +6937,7 @@
         <v>188631</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -5944,7 +6948,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>256</v>
@@ -5956,7 +6960,7 @@
         <v>190895</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -5967,7 +6971,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>257</v>
@@ -5979,7 +6983,7 @@
         <v>454447</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -5990,7 +6994,7 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>258</v>
@@ -6002,7 +7006,7 @@
         <v>822190</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -6013,7 +7017,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>259</v>
@@ -6025,7 +7029,7 @@
         <v>178181</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -6036,7 +7040,7 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>260</v>
@@ -6048,7 +7052,7 @@
         <v>706220</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -6059,7 +7063,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>261</v>
@@ -6068,10 +7072,10 @@
         <v>45629</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -6082,7 +7086,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
         <v>262</v>
@@ -6094,7 +7098,7 @@
         <v>859416</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -6105,7 +7109,7 @@
         <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>263</v>
@@ -6114,10 +7118,10 @@
         <v>43233</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -6128,19 +7132,19 @@
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E30" s="1">
         <v>43078</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -6151,7 +7155,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
         <v>264</v>
@@ -6160,10 +7164,10 @@
         <v>42914</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -6174,7 +7178,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>265</v>
@@ -6186,7 +7190,7 @@
         <v>380112</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -6197,7 +7201,7 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>266</v>
@@ -6209,7 +7213,7 @@
         <v>696875</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -6220,7 +7224,7 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>267</v>
@@ -6229,10 +7233,10 @@
         <v>42668</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -6243,7 +7247,7 @@
         <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
         <v>268</v>
@@ -6255,7 +7259,7 @@
         <v>193926</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -6266,7 +7270,7 @@
         <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>269</v>
@@ -6275,10 +7279,10 @@
         <v>44359</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -6289,7 +7293,7 @@
         <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>270</v>
@@ -6301,7 +7305,7 @@
         <v>425614</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -6312,7 +7316,7 @@
         <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>271</v>
@@ -6321,10 +7325,10 @@
         <v>45307</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -6335,7 +7339,7 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>272</v>
@@ -6347,7 +7351,7 @@
         <v>977245</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -6358,7 +7362,7 @@
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>273</v>
@@ -6370,7 +7374,7 @@
         <v>216083</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -6381,7 +7385,7 @@
         <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>274</v>
@@ -6390,10 +7394,10 @@
         <v>43412</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -6404,7 +7408,7 @@
         <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
         <v>275</v>
@@ -6416,7 +7420,7 @@
         <v>383030</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -6427,7 +7431,7 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
         <v>276</v>
@@ -6436,10 +7440,10 @@
         <v>42989</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -6450,7 +7454,7 @@
         <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
         <v>277</v>
@@ -6459,10 +7463,10 @@
         <v>43436</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -6473,7 +7477,7 @@
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>278</v>
@@ -6485,7 +7489,7 @@
         <v>439917</v>
       </c>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -6496,7 +7500,7 @@
         <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>279</v>
@@ -6508,7 +7512,7 @@
         <v>748742</v>
       </c>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -6519,7 +7523,7 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
         <v>280</v>
@@ -6528,10 +7532,10 @@
         <v>42849</v>
       </c>
       <c r="H47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -6542,7 +7546,7 @@
         <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>281</v>
@@ -6551,10 +7555,10 @@
         <v>43267</v>
       </c>
       <c r="H48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -6565,7 +7569,7 @@
         <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
         <v>282</v>
@@ -6577,7 +7581,7 @@
         <v>367015</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -6588,7 +7592,7 @@
         <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
         <v>283</v>
@@ -6597,10 +7601,10 @@
         <v>42936</v>
       </c>
       <c r="H50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -6611,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
         <v>284</v>
@@ -6623,7 +7627,7 @@
         <v>394947</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -6634,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>285</v>
@@ -6643,10 +7647,10 @@
         <v>44027</v>
       </c>
       <c r="H52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M52">
         <v>2</v>
@@ -6657,7 +7661,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>286</v>
@@ -6666,10 +7670,10 @@
         <v>44835</v>
       </c>
       <c r="H53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -6680,7 +7684,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>287</v>
@@ -6692,7 +7696,7 @@
         <v>907904</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M54">
         <v>2</v>
@@ -6703,7 +7707,7 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>288</v>
@@ -6712,10 +7716,10 @@
         <v>42892</v>
       </c>
       <c r="H55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M55">
         <v>2</v>
@@ -6726,7 +7730,7 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>289</v>
@@ -6738,7 +7742,7 @@
         <v>175887</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -6749,7 +7753,7 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
         <v>290</v>
@@ -6761,7 +7765,7 @@
         <v>763857</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -6772,7 +7776,7 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
         <v>291</v>
@@ -6784,7 +7788,7 @@
         <v>117135</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M58">
         <v>2</v>
@@ -6795,7 +7799,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
         <v>292</v>
@@ -6807,7 +7811,7 @@
         <v>168284</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M59">
         <v>2</v>
@@ -6818,7 +7822,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
         <v>293</v>
@@ -6830,7 +7834,7 @@
         <v>926512</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M60">
         <v>2</v>
@@ -6841,7 +7845,7 @@
         <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
         <v>294</v>
@@ -6850,10 +7854,10 @@
         <v>44003</v>
       </c>
       <c r="H61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M61">
         <v>2</v>
@@ -6864,7 +7868,7 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
         <v>295</v>
@@ -6876,7 +7880,7 @@
         <v>886097</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M62">
         <v>2</v>
@@ -6887,7 +7891,7 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
         <v>296</v>
@@ -6896,10 +7900,10 @@
         <v>43901</v>
       </c>
       <c r="H63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M63">
         <v>2</v>
@@ -6910,7 +7914,7 @@
         <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
         <v>297</v>
@@ -6922,7 +7926,7 @@
         <v>686542</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M64">
         <v>2</v>
@@ -6933,7 +7937,7 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
         <v>298</v>
@@ -6942,10 +7946,10 @@
         <v>45231</v>
       </c>
       <c r="H65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M65">
         <v>2</v>
@@ -6956,7 +7960,7 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
         <v>299</v>
@@ -6968,7 +7972,7 @@
         <v>262269</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M66">
         <v>2</v>
@@ -6979,7 +7983,7 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
         <v>300</v>
@@ -6988,10 +7992,10 @@
         <v>44920</v>
       </c>
       <c r="H67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -7002,7 +8006,7 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
         <v>301</v>
@@ -7014,7 +8018,7 @@
         <v>849556</v>
       </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M68">
         <v>2</v>
@@ -7025,7 +8029,7 @@
         <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
         <v>302</v>
@@ -7034,10 +8038,10 @@
         <v>44768</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -7048,7 +8052,7 @@
         <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
         <v>303</v>
@@ -7057,10 +8061,10 @@
         <v>42160</v>
       </c>
       <c r="H70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M70">
         <v>2</v>
@@ -7071,7 +8075,7 @@
         <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
         <v>304</v>
@@ -7080,10 +8084,10 @@
         <v>42039</v>
       </c>
       <c r="H71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M71">
         <v>2</v>
@@ -7094,7 +8098,7 @@
         <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
         <v>305</v>
@@ -7103,10 +8107,10 @@
         <v>44942</v>
       </c>
       <c r="H72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M72">
         <v>2</v>
@@ -7117,7 +8121,7 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
         <v>306</v>
@@ -7126,10 +8130,10 @@
         <v>42437</v>
       </c>
       <c r="H73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M73">
         <v>2</v>
@@ -7140,7 +8144,7 @@
         <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>307</v>
@@ -7152,7 +8156,7 @@
         <v>456692</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M74">
         <v>2</v>
@@ -7163,7 +8167,7 @@
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>308</v>
@@ -7175,7 +8179,7 @@
         <v>832744</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M75">
         <v>2</v>
@@ -7186,7 +8190,7 @@
         <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
         <v>309</v>
@@ -7198,7 +8202,7 @@
         <v>519896</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M76">
         <v>2</v>
@@ -7209,7 +8213,7 @@
         <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
         <v>310</v>
@@ -7218,10 +8222,10 @@
         <v>44828</v>
       </c>
       <c r="H77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M77">
         <v>2</v>
@@ -7232,7 +8236,7 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
         <v>311</v>
@@ -7244,7 +8248,7 @@
         <v>123392</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M78">
         <v>2</v>
@@ -7255,7 +8259,7 @@
         <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
         <v>312</v>
@@ -7267,7 +8271,7 @@
         <v>395889</v>
       </c>
       <c r="I79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M79">
         <v>2</v>
@@ -7278,7 +8282,7 @@
         <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
         <v>313</v>
@@ -7290,7 +8294,7 @@
         <v>144303</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M80">
         <v>2</v>
@@ -7301,7 +8305,7 @@
         <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
         <v>314</v>
@@ -7313,7 +8317,7 @@
         <v>202198</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M81">
         <v>2</v>
@@ -7324,7 +8328,7 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C82" t="s">
         <v>315</v>
@@ -7336,7 +8340,7 @@
         <v>473939</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M82">
         <v>2</v>
@@ -7347,7 +8351,7 @@
         <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
         <v>316</v>
@@ -7356,10 +8360,10 @@
         <v>44434</v>
       </c>
       <c r="H83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M83">
         <v>2</v>
@@ -7370,7 +8374,7 @@
         <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
         <v>317</v>
@@ -7382,7 +8386,7 @@
         <v>227045</v>
       </c>
       <c r="I84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M84">
         <v>2</v>
@@ -7393,7 +8397,7 @@
         <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
         <v>318</v>
@@ -7402,10 +8406,10 @@
         <v>43662</v>
       </c>
       <c r="H85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M85">
         <v>2</v>
@@ -7416,7 +8420,7 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>319</v>
@@ -7425,10 +8429,10 @@
         <v>44929</v>
       </c>
       <c r="H86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M86">
         <v>2</v>
@@ -7439,10 +8443,10 @@
         <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E87" s="1">
         <v>44181</v>
@@ -7451,7 +8455,7 @@
         <v>486842</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M87">
         <v>2</v>
@@ -7462,7 +8466,7 @@
         <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s">
         <v>320</v>
@@ -7471,10 +8475,10 @@
         <v>44290</v>
       </c>
       <c r="H88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M88">
         <v>2</v>
@@ -7485,7 +8489,7 @@
         <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
         <v>321</v>
@@ -7494,10 +8498,10 @@
         <v>42668</v>
       </c>
       <c r="H89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M89">
         <v>2</v>
@@ -7508,7 +8512,7 @@
         <v>76</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
         <v>322</v>
@@ -7520,7 +8524,7 @@
         <v>872026</v>
       </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M90">
         <v>2</v>
@@ -7531,7 +8535,7 @@
         <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
         <v>323</v>
@@ -7543,7 +8547,7 @@
         <v>747829</v>
       </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M91">
         <v>2</v>
@@ -7554,7 +8558,7 @@
         <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
         <v>324</v>
@@ -7566,7 +8570,7 @@
         <v>560542</v>
       </c>
       <c r="I92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M92">
         <v>2</v>
@@ -7577,7 +8581,7 @@
         <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C93" t="s">
         <v>325</v>
@@ -7589,7 +8593,7 @@
         <v>732577</v>
       </c>
       <c r="I93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M93">
         <v>2</v>
@@ -7600,7 +8604,7 @@
         <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
         <v>326</v>
@@ -7609,10 +8613,10 @@
         <v>42202</v>
       </c>
       <c r="H94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M94">
         <v>2</v>
@@ -7623,7 +8627,7 @@
         <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
         <v>327</v>
@@ -7635,7 +8639,7 @@
         <v>271438</v>
       </c>
       <c r="I95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M95">
         <v>2</v>
@@ -7646,7 +8650,7 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
         <v>328</v>
@@ -7658,7 +8662,7 @@
         <v>362680</v>
       </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M96">
         <v>2</v>
@@ -7669,7 +8673,7 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
         <v>329</v>
@@ -7678,10 +8682,10 @@
         <v>43319</v>
       </c>
       <c r="H97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M97">
         <v>2</v>
@@ -7692,7 +8696,7 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
         <v>330</v>
@@ -7704,7 +8708,7 @@
         <v>499445</v>
       </c>
       <c r="I98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M98">
         <v>2</v>
@@ -7715,7 +8719,7 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
         <v>331</v>
@@ -7727,7 +8731,7 @@
         <v>355767</v>
       </c>
       <c r="I99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M99">
         <v>2</v>
@@ -7738,7 +8742,7 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C100" t="s">
         <v>332</v>
@@ -7747,10 +8751,10 @@
         <v>44106</v>
       </c>
       <c r="H100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M100">
         <v>2</v>
@@ -7761,7 +8765,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
         <v>333</v>
@@ -7773,7 +8777,7 @@
         <v>820971</v>
       </c>
       <c r="I101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M101">
         <v>2</v>
@@ -7797,17 +8801,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
